--- a/Excel/Attribute属性.xlsx
+++ b/Excel/Attribute属性.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画控制器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,6 +571,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
